--- a/src/test/files/excel/test.xlsx
+++ b/src/test/files/excel/test.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E609B9-BBD5-4C40-A0D7-5E76BF88E1B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="210" windowWidth="24330" windowHeight="8955"/>
+    <workbookView xWindow="45" yWindow="210" windowWidth="24330" windowHeight="8955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="116">
   <si>
     <t>偿债能力指标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -231,9 +232,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>毛利率</t>
-  </si>
-  <si>
     <t>{({10633}/{10010})*100}%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,9 +252,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>毛利增长率</t>
-  </si>
-  <si>
     <t>{({10632}/{10633}-1)*100}%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -273,9 +268,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EBITDA率</t>
-  </si>
-  <si>
     <t>{({10643}/{10010})*100}%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -296,9 +288,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EBITDA增长率</t>
-  </si>
-  <si>
     <t>{({10642}/{10643}-1)*100}%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -315,9 +304,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EBIT率</t>
-  </si>
-  <si>
     <t>{({10638}/{10010})*100}%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -338,9 +324,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EBIT增长率</t>
-  </si>
-  <si>
     <t>{({10637}/{10638}-1)*100}%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -357,10 +340,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>税前利润率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{({10155}/{10010})*100}%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -381,10 +360,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>税前利润增长率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{({10154}/{10155}-1)*100}%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -401,10 +376,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>净利率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{({10165}/{10010})*100}%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -425,10 +396,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>净利润增长率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{({10164}/{10165}-1)*100}%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -445,10 +412,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>经营活动产生的现金流/营业收入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{({10205}/{10010})*100}%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -469,10 +432,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>经营活动产生的现金流增长率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{({10204}/{10205}-1)*100}%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -489,10 +448,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>资产周转率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{({10010}/{10450})*100}%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -510,10 +465,6 @@
   </si>
   <si>
     <t>{({10006}/{10446})*100}%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人均工资</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -523,12 +474,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-409]d/mmm/yy;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -643,18 +594,21 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal_Summary Template" xfId="1"/>
-    <cellStyle name="百分比 2" xfId="2"/>
+    <cellStyle name="Normal_Summary Template" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="百分比 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="3"/>
-    <cellStyle name="常规 2 6" xfId="4"/>
-    <cellStyle name="千位分隔 2" xfId="5"/>
+    <cellStyle name="常规 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 2 6" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="千位分隔 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -703,7 +657,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -736,9 +690,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -771,6 +742,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -946,14 +934,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="6" width="25.625" customWidth="1"/>
     <col min="7" max="7" width="12.625" customWidth="1"/>
@@ -972,7 +960,7 @@
     <col min="26" max="26" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -992,7 +980,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1012,7 +1000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="27">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1032,7 +1020,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1052,7 +1040,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -1072,7 +1060,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
@@ -1092,7 +1080,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="27">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -1112,7 +1100,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="27">
       <c r="A9" s="3" t="s">
         <v>37</v>
       </c>
@@ -1132,7 +1120,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="27">
       <c r="A10" s="3" t="s">
         <v>43</v>
       </c>
@@ -1152,7 +1140,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
@@ -1172,7 +1160,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="27">
       <c r="A13" s="3" t="s">
         <v>50</v>
       </c>
@@ -1192,288 +1180,261 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>62</v>
-      </c>
+    </row>
+    <row r="15" spans="1:6" ht="27">
+      <c r="A15" s="3"/>
       <c r="B15" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="4" t="s">
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>73</v>
-      </c>
+    </row>
+    <row r="17" spans="1:6" ht="27">
+      <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="F18" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>84</v>
-      </c>
+    </row>
+    <row r="19" spans="1:6" ht="27">
+      <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>95</v>
-      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="5"/>
       <c r="B21" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>106</v>
-      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>111</v>
-      </c>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>117</v>
-      </c>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="5"/>
       <c r="B25" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>122</v>
-      </c>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="5"/>
       <c r="B26" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>128</v>
-      </c>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="5"/>
       <c r="B27" s="6" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>